--- a/timesheet/T26TimeSheet_20230701.xlsx
+++ b/timesheet/T26TimeSheet_20230701.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
   <si>
     <t>Contract Ref.: GCIO 5/2 (T26)</t>
   </si>
@@ -1713,8 +1713,8 @@
         <v>0</v>
       </c>
       <c r="K20" s="56"/>
-      <c r="L20" s="56">
-        <v>0</v>
+      <c r="L20" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="M20" s="56"/>
       <c r="N20" s="56">
@@ -1744,8 +1744,8 @@
         <v>0</v>
       </c>
       <c r="K21" s="56"/>
-      <c r="L21" s="56">
-        <v>0</v>
+      <c r="L21" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="M21" s="56"/>
       <c r="N21" s="56">
@@ -1775,8 +1775,8 @@
         <v>0</v>
       </c>
       <c r="K22" s="56"/>
-      <c r="L22" s="56">
-        <v>0</v>
+      <c r="L22" s="56" t="s">
+        <v>42</v>
       </c>
       <c r="M22" s="56"/>
       <c r="N22" s="56">
@@ -1806,8 +1806,8 @@
         <v>0</v>
       </c>
       <c r="K23" s="56"/>
-      <c r="L23" s="56">
-        <v>0</v>
+      <c r="L23" s="56" t="s">
+        <v>42</v>
       </c>
       <c r="M23" s="56"/>
       <c r="N23" s="56">
@@ -1837,8 +1837,8 @@
         <v>0</v>
       </c>
       <c r="K24" s="56"/>
-      <c r="L24" s="56">
-        <v>0</v>
+      <c r="L24" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="M24" s="56"/>
       <c r="N24" s="56">
@@ -1868,8 +1868,8 @@
         <v>0</v>
       </c>
       <c r="K25" s="56"/>
-      <c r="L25" s="56">
-        <v>0</v>
+      <c r="L25" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="M25" s="56"/>
       <c r="N25" s="56">
@@ -1899,8 +1899,8 @@
         <v>0</v>
       </c>
       <c r="K26" s="56"/>
-      <c r="L26" s="56">
-        <v>0</v>
+      <c r="L26" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="M26" s="56"/>
       <c r="N26" s="56">
@@ -1930,8 +1930,8 @@
         <v>0</v>
       </c>
       <c r="K27" s="56"/>
-      <c r="L27" s="56">
-        <v>0</v>
+      <c r="L27" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="M27" s="56"/>
       <c r="N27" s="56">
@@ -1961,8 +1961,8 @@
         <v>0</v>
       </c>
       <c r="K28" s="56"/>
-      <c r="L28" s="56">
-        <v>0</v>
+      <c r="L28" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="M28" s="56"/>
       <c r="N28" s="56">
@@ -1992,8 +1992,8 @@
         <v>0</v>
       </c>
       <c r="K29" s="56"/>
-      <c r="L29" s="56">
-        <v>0</v>
+      <c r="L29" s="56" t="s">
+        <v>42</v>
       </c>
       <c r="M29" s="56"/>
       <c r="N29" s="56">
@@ -2023,8 +2023,8 @@
         <v>0</v>
       </c>
       <c r="K30" s="56"/>
-      <c r="L30" s="56">
-        <v>0</v>
+      <c r="L30" s="56" t="s">
+        <v>42</v>
       </c>
       <c r="M30" s="56"/>
       <c r="N30" s="56">
@@ -2054,8 +2054,8 @@
         <v>0</v>
       </c>
       <c r="K31" s="56"/>
-      <c r="L31" s="56">
-        <v>0</v>
+      <c r="L31" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="M31" s="56"/>
       <c r="N31" s="56">
@@ -2085,8 +2085,8 @@
         <v>0</v>
       </c>
       <c r="K32" s="56"/>
-      <c r="L32" s="56">
-        <v>0</v>
+      <c r="L32" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="M32" s="56"/>
       <c r="N32" s="56">
@@ -2116,8 +2116,8 @@
         <v>0</v>
       </c>
       <c r="K33" s="56"/>
-      <c r="L33" s="56">
-        <v>0</v>
+      <c r="L33" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="M33" s="56"/>
       <c r="N33" s="56">
@@ -2147,8 +2147,8 @@
         <v>0</v>
       </c>
       <c r="K34" s="56"/>
-      <c r="L34" s="56">
-        <v>0</v>
+      <c r="L34" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="M34" s="56"/>
       <c r="N34" s="56">
@@ -2178,8 +2178,8 @@
         <v>0</v>
       </c>
       <c r="K35" s="56"/>
-      <c r="L35" s="56">
-        <v>0</v>
+      <c r="L35" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="M35" s="56"/>
       <c r="N35" s="56">
@@ -2209,8 +2209,8 @@
         <v>0</v>
       </c>
       <c r="K36" s="56"/>
-      <c r="L36" s="56">
-        <v>0</v>
+      <c r="L36" s="56" t="s">
+        <v>42</v>
       </c>
       <c r="M36" s="56"/>
       <c r="N36" s="56">
@@ -2240,8 +2240,8 @@
         <v>0</v>
       </c>
       <c r="K37" s="56"/>
-      <c r="L37" s="56">
-        <v>0</v>
+      <c r="L37" s="56" t="s">
+        <v>42</v>
       </c>
       <c r="M37" s="56"/>
       <c r="N37" s="56">
@@ -2271,8 +2271,8 @@
         <v>0</v>
       </c>
       <c r="K38" s="56"/>
-      <c r="L38" s="56">
-        <v>0</v>
+      <c r="L38" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="M38" s="56"/>
       <c r="N38" s="56">
@@ -2302,8 +2302,8 @@
         <v>0</v>
       </c>
       <c r="K39" s="56"/>
-      <c r="L39" s="56">
-        <v>0</v>
+      <c r="L39" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="M39" s="56"/>
       <c r="N39" s="56">
@@ -2333,8 +2333,8 @@
         <v>0</v>
       </c>
       <c r="K40" s="56"/>
-      <c r="L40" s="56">
-        <v>0</v>
+      <c r="L40" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="M40" s="56"/>
       <c r="N40" s="56">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="B41" s="55"/>
       <c r="C41" s="56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D41" s="56"/>
       <c r="E41" s="56">
@@ -2364,8 +2364,8 @@
         <v>0</v>
       </c>
       <c r="K41" s="56"/>
-      <c r="L41" s="56">
-        <v>0</v>
+      <c r="L41" s="56" t="s">
+        <v>42</v>
       </c>
       <c r="M41" s="56"/>
       <c r="N41" s="56">
@@ -2395,8 +2395,8 @@
         <v>0</v>
       </c>
       <c r="K42" s="56"/>
-      <c r="L42" s="56">
-        <v>0</v>
+      <c r="L42" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="M42" s="56"/>
       <c r="N42" s="56">
@@ -2426,8 +2426,8 @@
         <v>0</v>
       </c>
       <c r="K43" s="56"/>
-      <c r="L43" s="56">
-        <v>0</v>
+      <c r="L43" s="56" t="s">
+        <v>42</v>
       </c>
       <c r="M43" s="56"/>
       <c r="N43" s="56">
@@ -2457,8 +2457,8 @@
         <v>0</v>
       </c>
       <c r="K44" s="56"/>
-      <c r="L44" s="56">
-        <v>0</v>
+      <c r="L44" s="56" t="s">
+        <v>42</v>
       </c>
       <c r="M44" s="56"/>
       <c r="N44" s="56">
@@ -2488,8 +2488,8 @@
         <v>0</v>
       </c>
       <c r="K45" s="56"/>
-      <c r="L45" s="56">
-        <v>0</v>
+      <c r="L45" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="M45" s="56"/>
       <c r="N45" s="56">
@@ -2519,8 +2519,8 @@
         <v>0</v>
       </c>
       <c r="K46" s="56"/>
-      <c r="L46" s="56">
-        <v>0</v>
+      <c r="L46" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="M46" s="56"/>
       <c r="N46" s="56">
@@ -2550,8 +2550,8 @@
         <v>0</v>
       </c>
       <c r="K47" s="56"/>
-      <c r="L47" s="56">
-        <v>0</v>
+      <c r="L47" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="M47" s="56"/>
       <c r="N47" s="56">
@@ -2581,8 +2581,8 @@
         <v>0</v>
       </c>
       <c r="K48" s="56"/>
-      <c r="L48" s="56">
-        <v>0</v>
+      <c r="L48" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="M48" s="56"/>
       <c r="N48" s="56">
@@ -2612,8 +2612,8 @@
         <v>0</v>
       </c>
       <c r="K49" s="56"/>
-      <c r="L49" s="56">
-        <v>0</v>
+      <c r="L49" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="M49" s="56"/>
       <c r="N49" s="56">
@@ -2658,8 +2658,7 @@
       </c>
       <c r="B51" s="59"/>
       <c r="C51" s="56">
-        <f>SUM(C20:D50)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D51" s="55"/>
       <c r="E51" s="56">
